--- a/biology/Zoologie/Attulus_croceus/Attulus_croceus.xlsx
+++ b/biology/Zoologie/Attulus_croceus/Attulus_croceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attulus croceus est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attulus croceus est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Iran[1]. Elle se rencontre dans les provinces de Téhéran et du Mazandéran[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Iran. Elle se rencontre dans les provinces de Téhéran et du Mazandéran.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,03 mm de long sur 1,63 mm et l'abdomen 2,75 mm de long sur 2,00 mm et la carapace du mâle paratype mesure 1,83 mm de long sur 1,35 mm et l'abdomen 1,25 mm de long sur 0,93 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,03 mm de long sur 1,63 mm et l'abdomen 2,75 mm de long sur 2,00 mm et la carapace du mâle paratype mesure 1,83 mm de long sur 1,35 mm et l'abdomen 1,25 mm de long sur 0,93 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Logunov en 2023.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Logunov, 2023 : « On the jumping spiders (Araneae: Salticidae) from Iran collected by Antoine Senglet (1927–2015). » Arachnology, vol. 19, no 4, p. 732-768.</t>
         </is>
